--- a/data/trans_orig/P1427-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D889F602-2A49-4725-9E2B-F955AB869309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{069F4C5B-5798-4FAA-8305-8A87C0E40A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{6145526B-1C52-44C1-BE69-35274E22D3DD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E9665FE-E888-41A2-B584-0C316253997C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="403">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -85,1192 +85,1168 @@
     <t>1,02%</t>
   </si>
   <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D835466E-B49F-48C5-893A-EBFD3B41579D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BB1E89-3623-4F01-ABC7-1ADA60FEE7BC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2131,10 +2107,10 @@
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2125,13 @@
         <v>319138</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -2164,13 +2140,13 @@
         <v>334657</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>625</v>
@@ -2179,13 +2155,13 @@
         <v>653795</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,7 +2217,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2253,13 +2229,13 @@
         <v>18475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2268,13 +2244,13 @@
         <v>23943</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -2283,13 +2259,13 @@
         <v>42419</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2280,13 @@
         <v>650245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
@@ -2319,13 +2295,13 @@
         <v>652253</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
@@ -2334,13 +2310,13 @@
         <v>1302497</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,7 +2372,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2408,13 +2384,13 @@
         <v>9693</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2423,13 +2399,13 @@
         <v>11952</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -2438,13 +2414,13 @@
         <v>21645</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2435,13 @@
         <v>202925</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -2474,13 +2450,13 @@
         <v>207639</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
@@ -2489,13 +2465,13 @@
         <v>410564</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,7 +2545,7 @@
         <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2578,13 +2554,13 @@
         <v>3966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2593,13 +2569,13 @@
         <v>6110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2590,13 @@
         <v>271837</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -2629,13 +2605,13 @@
         <v>274130</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>523</v>
@@ -2644,13 +2620,13 @@
         <v>545967</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,7 +2682,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2718,13 +2694,13 @@
         <v>14304</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -2733,13 +2709,13 @@
         <v>15472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2748,13 +2724,13 @@
         <v>29776</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2745,13 @@
         <v>648484</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -2784,13 +2760,13 @@
         <v>678381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>1228</v>
@@ -2799,13 +2775,13 @@
         <v>1326865</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2837,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2873,13 +2849,13 @@
         <v>13311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -2888,13 +2864,13 @@
         <v>18391</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -2903,13 +2879,13 @@
         <v>31702</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2900,13 @@
         <v>765787</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>740</v>
@@ -2939,13 +2915,13 @@
         <v>804187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>1447</v>
@@ -2954,13 +2930,13 @@
         <v>1569974</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3004,13 @@
         <v>67982</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>85</v>
@@ -3043,13 +3019,13 @@
         <v>94052</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -3058,13 +3034,13 @@
         <v>162034</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3055,13 @@
         <v>3358797</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>3211</v>
@@ -3094,28 +3070,28 @@
         <v>3461046</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>6359</v>
       </c>
       <c r="N29" s="7">
-        <v>6819843</v>
+        <v>6819844</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,7 +3133,7 @@
         <v>6505</v>
       </c>
       <c r="N30" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -3171,7 +3147,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3195,7 +3171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117B088D-7540-4811-A9E7-B7988FCDC9FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2112A2A9-0112-43B1-A16D-FA5F7E9AE644}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3212,7 +3188,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3322,10 +3298,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3334,13 +3310,13 @@
         <v>9462</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3349,13 +3325,13 @@
         <v>12467</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,10 +3349,10 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -3385,13 +3361,13 @@
         <v>279241</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
@@ -3400,13 +3376,13 @@
         <v>569997</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3450,13 @@
         <v>1079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3489,13 +3465,13 @@
         <v>5813</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3504,13 +3480,13 @@
         <v>6892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3501,13 @@
         <v>501496</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3540,13 +3516,13 @@
         <v>517271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>953</v>
@@ -3555,13 +3531,13 @@
         <v>1018767</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3605,13 @@
         <v>5173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3644,13 +3620,13 @@
         <v>5261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3659,13 +3635,13 @@
         <v>10433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3656,13 @@
         <v>313392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -3695,13 +3671,13 @@
         <v>331048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>656</v>
@@ -3710,13 +3686,13 @@
         <v>644441</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,7 +3748,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3784,13 +3760,13 @@
         <v>2805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3802,10 +3778,10 @@
         <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3814,13 +3790,13 @@
         <v>9358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3811,13 @@
         <v>367159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>352</v>
@@ -3850,13 +3826,13 @@
         <v>380729</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -3865,13 +3841,13 @@
         <v>747889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +3903,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3945,7 +3921,7 @@
         <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3954,13 +3930,13 @@
         <v>6729</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3969,13 +3945,13 @@
         <v>6729</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,10 +3966,10 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>32</v>
@@ -4005,13 +3981,13 @@
         <v>211858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -4020,13 +3996,13 @@
         <v>423079</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4070,13 @@
         <v>4217</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4109,13 +4085,13 @@
         <v>8297</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4124,13 +4100,13 @@
         <v>12514</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4121,13 @@
         <v>258906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="H20" s="7">
         <v>256</v>
@@ -4160,13 +4136,13 @@
         <v>264818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>510</v>
@@ -4175,13 +4151,13 @@
         <v>523724</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,7 +4213,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4249,13 +4225,13 @@
         <v>11280</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4264,13 +4240,13 @@
         <v>19510</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -4279,13 +4255,13 @@
         <v>30790</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4276,13 @@
         <v>645278</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H23" s="7">
         <v>629</v>
@@ -4315,13 +4291,13 @@
         <v>671784</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
@@ -4330,13 +4306,13 @@
         <v>1317062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,7 +4368,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4404,13 +4380,13 @@
         <v>7829</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4419,13 +4395,13 @@
         <v>18840</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -4434,13 +4410,13 @@
         <v>26669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4431,13 @@
         <v>770754</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H26" s="7">
         <v>739</v>
@@ -4470,13 +4446,13 @@
         <v>807327</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>1481</v>
@@ -4485,13 +4461,13 @@
         <v>1578081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4535,13 @@
         <v>35388</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -4574,13 +4550,13 @@
         <v>80465</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c r="M28" s="7">
         <v>108</v>
@@ -4589,13 +4565,13 @@
         <v>115853</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4586,13 @@
         <v>3358962</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H29" s="7">
         <v>3268</v>
@@ -4625,13 +4601,13 @@
         <v>3464077</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M29" s="7">
         <v>6461</v>
@@ -4640,13 +4616,13 @@
         <v>6823039</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>285</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,7 +4678,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4726,7 +4702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B5D3D2-6F59-4568-B19B-DDC84228040B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DAF4E-D14A-4503-AC43-0DB5E80508A0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4743,7 +4719,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4850,13 +4826,13 @@
         <v>881</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4865,13 +4841,13 @@
         <v>2689</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4880,13 +4856,13 @@
         <v>3570</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4877,13 @@
         <v>259417</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>531</v>
@@ -4916,13 +4892,13 @@
         <v>268714</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>860</v>
@@ -4931,13 +4907,13 @@
         <v>528130</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +4981,13 @@
         <v>11852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5020,13 +4996,13 @@
         <v>22761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -5035,13 +5011,13 @@
         <v>34612</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5032,13 @@
         <v>504023</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H8" s="7">
         <v>683</v>
@@ -5071,13 +5047,13 @@
         <v>531080</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
@@ -5086,13 +5062,13 @@
         <v>1035104</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5136,13 @@
         <v>20290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5175,13 +5151,13 @@
         <v>22391</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -5190,13 +5166,13 @@
         <v>42681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5187,13 @@
         <v>301950</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -5226,13 +5202,13 @@
         <v>350893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>823</v>
@@ -5241,13 +5217,13 @@
         <v>652843</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5279,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5315,13 +5291,13 @@
         <v>7020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5330,13 +5306,13 @@
         <v>9365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5345,13 +5321,13 @@
         <v>16385</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5342,13 @@
         <v>315220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>576</v>
@@ -5381,13 +5357,13 @@
         <v>418527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>858</v>
@@ -5396,13 +5372,13 @@
         <v>733747</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,7 +5434,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5470,13 +5446,13 @@
         <v>9161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -5485,13 +5461,13 @@
         <v>8647</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -5500,13 +5476,13 @@
         <v>17808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5497,13 @@
         <v>187587</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>470</v>
@@ -5536,13 +5512,13 @@
         <v>222849</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>733</v>
@@ -5551,13 +5527,13 @@
         <v>410436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5601,13 @@
         <v>30426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5640,13 +5616,13 @@
         <v>33087</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -5655,13 +5631,13 @@
         <v>63514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5652,13 @@
         <v>246797</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H20" s="7">
         <v>373</v>
@@ -5691,13 +5667,13 @@
         <v>241353</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>682</v>
@@ -5706,13 +5682,13 @@
         <v>488149</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,7 +5744,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5780,13 +5756,13 @@
         <v>21538</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>228</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>373</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -5795,13 +5771,13 @@
         <v>46418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -5810,13 +5786,13 @@
         <v>67956</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5807,13 @@
         <v>604679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>235</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>889</v>
@@ -5846,13 +5822,13 @@
         <v>757065</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7">
         <v>1463</v>
@@ -5861,13 +5837,13 @@
         <v>1361744</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,7 +5899,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5935,13 +5911,13 @@
         <v>11408</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>197</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -5950,13 +5926,13 @@
         <v>28539</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>247</v>
+        <v>381</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -5965,13 +5941,13 @@
         <v>39947</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>389</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>39</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +5962,13 @@
         <v>848020</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="H26" s="7">
         <v>1029</v>
@@ -6001,13 +5977,13 @@
         <v>837133</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>253</v>
+        <v>386</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1776</v>
@@ -6016,13 +5992,13 @@
         <v>1685153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>47</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6066,13 @@
         <v>112577</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H28" s="7">
         <v>312</v>
@@ -6105,13 +6081,13 @@
         <v>173896</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M28" s="7">
         <v>483</v>
@@ -6120,13 +6096,13 @@
         <v>286474</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>400</v>
+        <v>53</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6117,13 @@
         <v>3267691</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>404</v>
+        <v>49</v>
       </c>
       <c r="H29" s="7">
         <v>5045</v>
@@ -6156,13 +6132,13 @@
         <v>3627614</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M29" s="7">
         <v>8245</v>
@@ -6171,13 +6147,13 @@
         <v>6895304</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>410</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,7 +6209,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1427-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{069F4C5B-5798-4FAA-8305-8A87C0E40A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC7B2ED-07C9-44DC-9722-6C24DA092803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E9665FE-E888-41A2-B584-0C316253997C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{485F8AC0-1534-4351-84DB-D93D6C59E5FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="401">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -85,1131 +85,1128 @@
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,38%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
     <t>3,89%</t>
   </si>
   <si>
@@ -1226,9 +1223,6 @@
   </si>
   <si>
     <t>4,43%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
   </si>
   <si>
     <t>96,11%</t>
@@ -1658,7 +1652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BB1E89-3623-4F01-ABC7-1ADA60FEE7BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CD6E9C-D44B-43D5-86C7-ADF217D7F205}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2107,10 +2101,10 @@
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2119,13 @@
         <v>319138</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -2140,13 +2134,13 @@
         <v>334657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>625</v>
@@ -2155,13 +2149,13 @@
         <v>653795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,7 +2211,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2229,13 +2223,13 @@
         <v>18475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2244,13 +2238,13 @@
         <v>23943</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -2259,13 +2253,13 @@
         <v>42419</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2274,13 @@
         <v>650245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
@@ -2295,13 +2289,13 @@
         <v>652253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
@@ -2310,13 +2304,13 @@
         <v>1302497</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,7 +2366,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2384,13 +2378,13 @@
         <v>9693</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2399,13 +2393,13 @@
         <v>11952</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -2414,13 +2408,13 @@
         <v>21645</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2429,13 @@
         <v>202925</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -2450,13 +2444,13 @@
         <v>207639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
@@ -2465,13 +2459,13 @@
         <v>410564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,7 +2521,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2539,13 +2533,13 @@
         <v>2144</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2554,13 +2548,13 @@
         <v>3966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2569,13 +2563,13 @@
         <v>6110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2584,13 @@
         <v>271837</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -2605,13 +2599,13 @@
         <v>274130</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>523</v>
@@ -2620,7 +2614,7 @@
         <v>545967</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>103</v>
@@ -2709,13 +2703,13 @@
         <v>15472</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2724,13 +2718,13 @@
         <v>29776</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2739,13 @@
         <v>648484</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -2760,13 +2754,13 @@
         <v>678381</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>1228</v>
@@ -2775,13 +2769,13 @@
         <v>1326865</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2831,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2843,13 @@
         <v>13311</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -2864,13 +2858,13 @@
         <v>18391</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -2879,13 +2873,13 @@
         <v>31702</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2894,13 @@
         <v>765787</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>740</v>
@@ -2915,13 +2909,13 @@
         <v>804187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>1447</v>
@@ -2930,13 +2924,13 @@
         <v>1569974</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2998,13 @@
         <v>67982</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>85</v>
@@ -3019,13 +3013,13 @@
         <v>94052</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -3034,13 +3028,13 @@
         <v>162034</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3049,13 @@
         <v>3358797</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7">
         <v>3211</v>
@@ -3070,28 +3064,28 @@
         <v>3461046</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>6359</v>
       </c>
       <c r="N29" s="7">
-        <v>6819844</v>
+        <v>6819843</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3127,7 @@
         <v>6505</v>
       </c>
       <c r="N30" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -3147,7 +3141,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2112A2A9-0112-43B1-A16D-FA5F7E9AE644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12780B20-B1D1-4D04-8D01-04BA93D11132}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,7 +3182,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3298,10 +3292,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3310,13 +3304,13 @@
         <v>9462</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3325,13 +3319,13 @@
         <v>12467</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,10 +3343,10 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -3361,13 +3355,13 @@
         <v>279241</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
@@ -3376,13 +3370,13 @@
         <v>569997</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3444,13 @@
         <v>1079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3465,13 +3459,13 @@
         <v>5813</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3480,13 +3474,13 @@
         <v>6892</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3495,13 @@
         <v>501496</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3516,13 +3510,13 @@
         <v>517271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>953</v>
@@ -3531,13 +3525,13 @@
         <v>1018767</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3599,13 @@
         <v>5173</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3620,13 +3614,13 @@
         <v>5261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3635,13 +3629,13 @@
         <v>10433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3650,13 @@
         <v>313392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -3671,13 +3665,13 @@
         <v>331048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>656</v>
@@ -3686,13 +3680,13 @@
         <v>644441</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3742,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3760,13 +3754,13 @@
         <v>2805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3778,10 +3772,10 @@
         <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3790,13 +3784,13 @@
         <v>9358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3805,13 @@
         <v>367159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>352</v>
@@ -3826,13 +3820,13 @@
         <v>380729</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -3841,13 +3835,13 @@
         <v>747889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,7 +3897,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3915,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3930,13 +3924,13 @@
         <v>6729</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3945,13 +3939,13 @@
         <v>6729</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,10 +3960,10 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>32</v>
@@ -3981,13 +3975,13 @@
         <v>211858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -3996,13 +3990,13 @@
         <v>423079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,7 +4052,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4070,13 +4064,13 @@
         <v>4217</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4085,13 +4079,13 @@
         <v>8297</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4100,13 +4094,13 @@
         <v>12514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4115,13 @@
         <v>258906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" s="7">
         <v>256</v>
@@ -4136,13 +4130,13 @@
         <v>264818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>510</v>
@@ -4151,13 +4145,13 @@
         <v>523724</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4219,13 @@
         <v>11280</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4240,13 +4234,13 @@
         <v>19510</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -4255,13 +4249,13 @@
         <v>30790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4270,13 @@
         <v>645278</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>629</v>
@@ -4291,13 +4285,13 @@
         <v>671784</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
@@ -4306,13 +4300,13 @@
         <v>1317062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,7 +4362,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4380,13 +4374,13 @@
         <v>7829</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4395,13 +4389,13 @@
         <v>18840</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -4410,13 +4404,13 @@
         <v>26669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4425,13 @@
         <v>770754</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H26" s="7">
         <v>739</v>
@@ -4446,13 +4440,13 @@
         <v>807327</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="M26" s="7">
         <v>1481</v>
@@ -4461,13 +4455,13 @@
         <v>1578081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4529,13 @@
         <v>35388</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -4550,13 +4544,13 @@
         <v>80465</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="M28" s="7">
         <v>108</v>
@@ -4565,13 +4559,13 @@
         <v>115853</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4580,13 @@
         <v>3358962</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H29" s="7">
         <v>3268</v>
@@ -4601,13 +4595,13 @@
         <v>3464077</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M29" s="7">
         <v>6461</v>
@@ -4616,13 +4610,13 @@
         <v>6823039</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,7 +4672,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4702,7 +4696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DAF4E-D14A-4503-AC43-0DB5E80508A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E6D291-8449-4246-A812-86507E17E8F8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4719,7 +4713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4826,13 +4820,13 @@
         <v>881</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4841,13 +4835,13 @@
         <v>2689</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>280</v>
+        <v>96</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4856,13 +4850,13 @@
         <v>3570</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4871,13 @@
         <v>259417</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>531</v>
@@ -4892,13 +4886,13 @@
         <v>268714</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>860</v>
@@ -4907,13 +4901,13 @@
         <v>528130</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +4975,13 @@
         <v>11852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -4996,13 +4990,13 @@
         <v>22761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -5011,13 +5005,13 @@
         <v>34612</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5026,13 @@
         <v>504023</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>683</v>
@@ -5047,13 +5041,13 @@
         <v>531080</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
@@ -5062,13 +5056,13 @@
         <v>1035104</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5130,13 @@
         <v>20290</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5151,13 +5145,13 @@
         <v>22391</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -5166,13 +5160,13 @@
         <v>42681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5181,13 @@
         <v>301950</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -5202,13 +5196,13 @@
         <v>350893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>823</v>
@@ -5217,13 +5211,13 @@
         <v>652843</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5273,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5291,13 +5285,13 @@
         <v>7020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5306,13 +5300,13 @@
         <v>9365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5321,13 +5315,13 @@
         <v>16385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,10 +5336,10 @@
         <v>315220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -5357,13 +5351,13 @@
         <v>418527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>858</v>
@@ -5372,13 +5366,13 @@
         <v>733747</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,7 +5428,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5446,13 +5440,13 @@
         <v>9161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -5461,13 +5455,13 @@
         <v>8647</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -5476,13 +5470,13 @@
         <v>17808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5491,13 @@
         <v>187587</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>470</v>
@@ -5512,13 +5506,13 @@
         <v>222849</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>733</v>
@@ -5527,13 +5521,13 @@
         <v>410436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,7 +5583,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5601,13 +5595,13 @@
         <v>30426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5616,13 +5610,13 @@
         <v>33087</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -5631,13 +5625,13 @@
         <v>63514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5646,13 @@
         <v>246797</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H20" s="7">
         <v>373</v>
@@ -5667,13 +5661,13 @@
         <v>241353</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M20" s="7">
         <v>682</v>
@@ -5682,13 +5676,13 @@
         <v>488149</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5750,13 @@
         <v>21538</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -5771,13 +5765,13 @@
         <v>46418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -5786,13 +5780,13 @@
         <v>67956</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5801,13 @@
         <v>604679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H23" s="7">
         <v>889</v>
@@ -5822,13 +5816,13 @@
         <v>757065</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M23" s="7">
         <v>1463</v>
@@ -5837,13 +5831,13 @@
         <v>1361744</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,7 +5893,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5911,13 +5905,13 @@
         <v>11408</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>375</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -5926,13 +5920,13 @@
         <v>28539</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -5941,13 +5935,13 @@
         <v>39947</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5956,13 @@
         <v>848020</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H26" s="7">
         <v>1029</v>
@@ -5977,13 +5971,13 @@
         <v>837133</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1776</v>
@@ -5992,13 +5986,13 @@
         <v>1685153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6060,13 @@
         <v>112577</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H28" s="7">
         <v>312</v>
@@ -6081,13 +6075,13 @@
         <v>173896</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M28" s="7">
         <v>483</v>
@@ -6096,13 +6090,13 @@
         <v>286474</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6111,13 @@
         <v>3267691</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>396</v>
+        <v>44</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" s="7">
         <v>5045</v>
@@ -6132,13 +6126,13 @@
         <v>3627614</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M29" s="7">
         <v>8245</v>
@@ -6147,13 +6141,13 @@
         <v>6895304</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,7 +6203,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1427-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC7B2ED-07C9-44DC-9722-6C24DA092803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A18088C0-E7CD-4724-89DD-EB22B608E38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{485F8AC0-1534-4351-84DB-D93D6C59E5FA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BDF7548-E7F3-4271-9094-23F75ED1694F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="411">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -85,1149 +85,1176 @@
     <t>1,02%</t>
   </si>
   <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>96,67%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
     <t>96,11%</t>
   </si>
   <si>
+    <t>97,22%</t>
+  </si>
+  <si>
     <t>95,43%</t>
   </si>
   <si>
@@ -1240,7 +1267,10 @@
     <t>96,01%</t>
   </si>
   <si>
-    <t>95,57%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CD6E9C-D44B-43D5-86C7-ADF217D7F205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27CE3BE-DEA6-4A01-BCD0-A7F03D1D36DE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2226,10 +2256,10 @@
         <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2238,13 +2268,13 @@
         <v>23943</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -2253,13 +2283,13 @@
         <v>42419</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,13 +2304,13 @@
         <v>650245</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
         <v>605</v>
@@ -2289,13 +2319,13 @@
         <v>652253</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1213</v>
@@ -2304,13 +2334,13 @@
         <v>1302497</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,7 +2396,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2378,13 +2408,13 @@
         <v>9693</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2393,13 +2423,13 @@
         <v>11952</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -2408,13 +2438,13 @@
         <v>21645</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2459,13 @@
         <v>202925</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -2444,13 +2474,13 @@
         <v>207639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
@@ -2459,13 +2489,13 @@
         <v>410564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,7 +2551,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2533,13 +2563,13 @@
         <v>2144</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2548,13 +2578,13 @@
         <v>3966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2563,13 +2593,13 @@
         <v>6110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2614,13 @@
         <v>271837</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -2599,13 +2629,13 @@
         <v>274130</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>523</v>
@@ -2614,13 +2644,13 @@
         <v>545967</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,7 +2706,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2688,13 +2718,13 @@
         <v>14304</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -2703,13 +2733,13 @@
         <v>15472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2718,13 +2748,13 @@
         <v>29776</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2769,13 @@
         <v>648484</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -2754,13 +2784,13 @@
         <v>678381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>1228</v>
@@ -2769,13 +2799,13 @@
         <v>1326865</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2861,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2843,13 +2873,13 @@
         <v>13311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -2858,13 +2888,13 @@
         <v>18391</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -2873,13 +2903,13 @@
         <v>31702</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2924,13 @@
         <v>765787</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H26" s="7">
         <v>740</v>
@@ -2909,13 +2939,13 @@
         <v>804187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>1447</v>
@@ -2924,13 +2954,13 @@
         <v>1569974</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3028,13 @@
         <v>67982</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>85</v>
@@ -3013,13 +3043,13 @@
         <v>94052</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -3028,13 +3058,13 @@
         <v>162034</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3079,13 @@
         <v>3358797</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H29" s="7">
         <v>3211</v>
@@ -3064,13 +3094,13 @@
         <v>3461046</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>6359</v>
@@ -3079,13 +3109,13 @@
         <v>6819843</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,7 +3171,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12780B20-B1D1-4D04-8D01-04BA93D11132}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1072F4-2A6A-4A52-8934-106D81C6BB1F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3182,7 +3212,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3292,10 +3322,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3304,13 +3334,13 @@
         <v>9462</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3319,13 +3349,13 @@
         <v>12467</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,10 +3373,10 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -3355,13 +3385,13 @@
         <v>279241</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
@@ -3370,13 +3400,13 @@
         <v>569997</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3474,13 @@
         <v>1079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3459,13 +3489,13 @@
         <v>5813</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3474,13 +3504,13 @@
         <v>6892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3525,13 @@
         <v>501496</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3510,13 +3540,13 @@
         <v>517271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>953</v>
@@ -3525,13 +3555,13 @@
         <v>1018767</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3629,13 @@
         <v>5173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3614,13 +3644,13 @@
         <v>5261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3629,13 +3659,13 @@
         <v>10433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3680,13 @@
         <v>313392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -3665,13 +3695,13 @@
         <v>331048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>656</v>
@@ -3680,13 +3710,13 @@
         <v>644441</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3784,13 @@
         <v>2805</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3772,10 +3802,10 @@
         <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3787,10 +3817,10 @@
         <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3835,13 @@
         <v>367159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>352</v>
@@ -3823,10 +3853,10 @@
         <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -3835,13 +3865,13 @@
         <v>747889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,7 +3927,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3909,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3924,13 +3954,13 @@
         <v>6729</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3939,13 +3969,13 @@
         <v>6729</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,10 +3990,10 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>32</v>
@@ -3975,13 +4005,13 @@
         <v>211858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -3990,13 +4020,13 @@
         <v>423079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,7 +4082,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4064,13 +4094,13 @@
         <v>4217</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4079,13 +4109,13 @@
         <v>8297</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4094,13 +4124,13 @@
         <v>12514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4145,13 @@
         <v>258906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>256</v>
@@ -4130,13 +4160,13 @@
         <v>264818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>510</v>
@@ -4145,13 +4175,13 @@
         <v>523724</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,7 +4237,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4219,10 +4249,10 @@
         <v>11280</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -4234,13 +4264,13 @@
         <v>19510</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -4249,13 +4279,13 @@
         <v>30790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4300,13 @@
         <v>645278</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H23" s="7">
         <v>629</v>
@@ -4285,13 +4315,13 @@
         <v>671784</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
@@ -4300,13 +4330,13 @@
         <v>1317062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,7 +4392,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4374,13 +4404,13 @@
         <v>7829</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4389,13 +4419,13 @@
         <v>18840</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -4404,13 +4434,13 @@
         <v>26669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4455,13 @@
         <v>770754</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H26" s="7">
         <v>739</v>
@@ -4440,13 +4470,13 @@
         <v>807327</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M26" s="7">
         <v>1481</v>
@@ -4455,13 +4485,13 @@
         <v>1578081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4559,13 @@
         <v>35388</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -4544,13 +4574,13 @@
         <v>80465</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="M28" s="7">
         <v>108</v>
@@ -4559,13 +4589,13 @@
         <v>115853</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4610,13 @@
         <v>3358962</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H29" s="7">
         <v>3268</v>
@@ -4595,13 +4625,13 @@
         <v>3464077</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="M29" s="7">
         <v>6461</v>
@@ -4610,13 +4640,13 @@
         <v>6823039</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,7 +4702,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4696,7 +4726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E6D291-8449-4246-A812-86507E17E8F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A03140E-705B-452C-B9E8-6917208E84B2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4713,7 +4743,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4820,13 +4850,13 @@
         <v>881</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4835,13 +4865,13 @@
         <v>2689</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4850,13 +4880,13 @@
         <v>3570</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4901,13 @@
         <v>259417</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>531</v>
@@ -4886,13 +4916,13 @@
         <v>268714</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
         <v>860</v>
@@ -4901,13 +4931,13 @@
         <v>528130</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +5005,13 @@
         <v>11852</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -4990,13 +5020,13 @@
         <v>22761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -5005,13 +5035,13 @@
         <v>34612</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5056,13 @@
         <v>504023</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>683</v>
@@ -5041,13 +5071,13 @@
         <v>531080</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
@@ -5056,13 +5086,13 @@
         <v>1035104</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5160,13 @@
         <v>20290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5145,13 +5175,13 @@
         <v>22391</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -5160,13 +5190,13 @@
         <v>42681</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5211,13 @@
         <v>301950</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
@@ -5196,13 +5226,13 @@
         <v>350893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>823</v>
@@ -5211,13 +5241,13 @@
         <v>652843</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5315,13 @@
         <v>7020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5300,13 +5330,13 @@
         <v>9365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5315,13 +5345,13 @@
         <v>16385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5366,13 @@
         <v>315220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>576</v>
@@ -5351,13 +5381,13 @@
         <v>418527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>858</v>
@@ -5366,13 +5396,13 @@
         <v>733747</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,7 +5458,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5440,13 +5470,13 @@
         <v>9161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -5455,13 +5485,13 @@
         <v>8647</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -5470,13 +5500,13 @@
         <v>17808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5521,13 @@
         <v>187587</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>470</v>
@@ -5506,13 +5536,13 @@
         <v>222849</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>733</v>
@@ -5521,13 +5551,13 @@
         <v>410436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,7 +5613,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5595,13 +5625,13 @@
         <v>30426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -5610,13 +5640,13 @@
         <v>33087</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -5625,13 +5655,13 @@
         <v>63514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5676,13 @@
         <v>246797</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>373</v>
@@ -5661,13 +5691,13 @@
         <v>241353</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>682</v>
@@ -5676,13 +5706,13 @@
         <v>488149</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,7 +5768,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5750,13 +5780,13 @@
         <v>21538</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>228</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>373</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -5765,13 +5795,13 @@
         <v>46418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -5780,13 +5810,13 @@
         <v>67956</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5831,13 @@
         <v>604679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>368</v>
+        <v>235</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>269</v>
+        <v>381</v>
       </c>
       <c r="H23" s="7">
         <v>889</v>
@@ -5816,13 +5846,13 @@
         <v>757065</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="M23" s="7">
         <v>1463</v>
@@ -5831,13 +5861,13 @@
         <v>1361744</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,7 +5923,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5905,13 +5935,13 @@
         <v>11408</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>376</v>
+        <v>197</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -5920,13 +5950,13 @@
         <v>28539</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>378</v>
+        <v>247</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -5935,13 +5965,13 @@
         <v>39947</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,13 +5986,13 @@
         <v>848020</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>384</v>
+        <v>205</v>
       </c>
       <c r="H26" s="7">
         <v>1029</v>
@@ -5971,13 +6001,13 @@
         <v>837133</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>385</v>
+        <v>253</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1776</v>
@@ -5986,13 +6016,13 @@
         <v>1685153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>387</v>
+        <v>47</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6090,13 @@
         <v>112577</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>36</v>
+        <v>393</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H28" s="7">
         <v>312</v>
@@ -6075,13 +6105,13 @@
         <v>173896</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M28" s="7">
         <v>483</v>
@@ -6090,13 +6120,13 @@
         <v>286474</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6141,13 @@
         <v>3267691</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>50</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>5045</v>
@@ -6126,13 +6156,13 @@
         <v>3627614</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="M29" s="7">
         <v>8245</v>
@@ -6141,13 +6171,13 @@
         <v>6895304</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>65</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,7 +6233,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1427-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A18088C0-E7CD-4724-89DD-EB22B608E38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03CD045D-6061-4A13-ACFF-F7DB1F62931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BDF7548-E7F3-4271-9094-23F75ED1694F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3B360318-41D1-4EBF-B9DF-94CCEE9AFF65}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="414">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -73,12 +73,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -136,9 +190,6 @@
     <t>98,87%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -199,1078 +250,1036 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
     <t>2,76%</t>
   </si>
   <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27CE3BE-DEA6-4A01-BCD0-A7F03D1D36DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C642AB-6F4A-481B-8074-A51B094CD892}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1800,88 +1809,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9979</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10791</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N4" s="7">
+        <v>20770</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="D5" s="7">
+        <v>284759</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="I5" s="7">
+        <v>276454</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>518</v>
+      </c>
+      <c r="N5" s="7">
+        <v>561213</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,48 +1911,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1943,13 +1970,13 @@
         <v>5147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -1958,13 +1985,13 @@
         <v>13964</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -1973,19 +2000,19 @@
         <v>19111</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>467</v>
@@ -1994,13 +2021,13 @@
         <v>500380</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>468</v>
@@ -2009,13 +2036,13 @@
         <v>509801</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>935</v>
@@ -2024,13 +2051,13 @@
         <v>1010181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,13 +2072,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -2060,13 +2087,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -2075,18 +2102,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2098,13 +2125,13 @@
         <v>4908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2113,13 +2140,13 @@
         <v>6363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2128,19 +2155,19 @@
         <v>11271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>314</v>
@@ -2149,13 +2176,13 @@
         <v>319138</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -2164,13 +2191,13 @@
         <v>334657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>625</v>
@@ -2179,13 +2206,13 @@
         <v>653795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2227,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2215,13 +2242,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -2230,117 +2257,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>18475</v>
+        <v>8496</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>23943</v>
+        <v>13152</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>42419</v>
+        <v>21649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>608</v>
+        <v>336</v>
       </c>
       <c r="D14" s="7">
-        <v>650245</v>
+        <v>365486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>605</v>
+        <v>359</v>
       </c>
       <c r="I14" s="7">
-        <v>652253</v>
+        <v>375799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1213</v>
+        <v>695</v>
       </c>
       <c r="N14" s="7">
-        <v>1302497</v>
+        <v>741284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,54 +2376,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2408,13 +2435,13 @@
         <v>9693</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2423,13 +2450,13 @@
         <v>11952</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -2438,19 +2465,19 @@
         <v>21645</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>187</v>
@@ -2459,13 +2486,13 @@
         <v>202925</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -2474,13 +2501,13 @@
         <v>207639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
@@ -2489,13 +2516,13 @@
         <v>410564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2537,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2525,13 +2552,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2540,18 +2567,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2563,13 +2590,13 @@
         <v>2144</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2578,13 +2605,13 @@
         <v>3966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2593,19 +2620,19 @@
         <v>6110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>259</v>
@@ -2614,13 +2641,13 @@
         <v>271837</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -2629,13 +2656,13 @@
         <v>274130</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>523</v>
@@ -2644,13 +2671,13 @@
         <v>545967</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2692,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2680,13 +2707,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2695,18 +2722,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2718,13 +2745,13 @@
         <v>14304</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -2733,13 +2760,13 @@
         <v>15472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2748,19 +2775,19 @@
         <v>29776</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>606</v>
@@ -2769,13 +2796,13 @@
         <v>648484</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>622</v>
@@ -2784,13 +2811,13 @@
         <v>678381</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>1228</v>
@@ -2799,13 +2826,13 @@
         <v>1326865</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2847,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2835,13 +2862,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2850,18 +2877,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2873,13 +2900,13 @@
         <v>13311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -2888,13 +2915,13 @@
         <v>18391</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -2903,19 +2930,19 @@
         <v>31702</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>707</v>
@@ -2924,13 +2951,13 @@
         <v>765787</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>740</v>
@@ -2939,13 +2966,13 @@
         <v>804187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1447</v>
@@ -2954,13 +2981,13 @@
         <v>1569974</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +3002,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -2990,13 +3017,13 @@
         <v>822578</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1473</v>
@@ -3005,13 +3032,13 @@
         <v>1601676</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3055,13 @@
         <v>67982</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>85</v>
@@ -3043,13 +3070,13 @@
         <v>94052</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -3058,19 +3085,19 @@
         <v>162034</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3148</v>
@@ -3079,13 +3106,13 @@
         <v>3358797</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>3211</v>
@@ -3094,13 +3121,13 @@
         <v>3461046</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>6359</v>
@@ -3109,13 +3136,13 @@
         <v>6819843</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3157,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3296</v>
@@ -3145,13 +3172,13 @@
         <v>3555098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6505</v>
@@ -3160,18 +3187,18 @@
         <v>6981877</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3195,7 +3222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1072F4-2A6A-4A52-8934-106D81C6BB1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C8B665-A16F-4A59-A2F0-F890BFD3200A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3212,7 +3239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3319,13 +3346,13 @@
         <v>3006</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3334,13 +3361,13 @@
         <v>9462</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -3349,19 +3376,19 @@
         <v>12467</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>263</v>
@@ -3370,13 +3397,13 @@
         <v>290755</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -3385,13 +3412,13 @@
         <v>279241</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
@@ -3400,13 +3427,13 @@
         <v>569997</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3448,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -3436,13 +3463,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -3451,18 +3478,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3474,13 +3501,13 @@
         <v>1079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3489,13 +3516,13 @@
         <v>5813</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3504,19 +3531,19 @@
         <v>6892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>474</v>
@@ -3525,13 +3552,13 @@
         <v>501496</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3540,13 +3567,13 @@
         <v>517271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>953</v>
@@ -3555,13 +3582,13 @@
         <v>1018767</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3603,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3591,13 +3618,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3606,18 +3633,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3629,13 +3656,13 @@
         <v>5173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3644,13 +3671,13 @@
         <v>5261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3659,19 +3686,19 @@
         <v>10433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>329</v>
@@ -3680,13 +3707,13 @@
         <v>313392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -3695,13 +3722,13 @@
         <v>331048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>656</v>
@@ -3710,13 +3737,13 @@
         <v>644441</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3758,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3746,13 +3773,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3761,18 +3788,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3784,13 +3811,13 @@
         <v>2805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3799,13 +3826,13 @@
         <v>6554</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3814,19 +3841,19 @@
         <v>9358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>351</v>
@@ -3835,13 +3862,13 @@
         <v>367159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>352</v>
@@ -3850,13 +3877,13 @@
         <v>380729</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -3865,13 +3892,13 @@
         <v>747889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3913,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3901,13 +3928,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3916,18 +3943,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3939,13 +3966,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3954,13 +3981,13 @@
         <v>6729</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3969,19 +3996,19 @@
         <v>6729</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>212</v>
@@ -3990,13 +4017,13 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -4005,13 +4032,13 @@
         <v>211858</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="M17" s="7">
         <v>429</v>
@@ -4020,13 +4047,13 @@
         <v>423079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4068,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -4056,13 +4083,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -4071,18 +4098,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4094,13 +4121,13 @@
         <v>4217</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4109,13 +4136,13 @@
         <v>8297</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -4124,19 +4151,19 @@
         <v>12514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>254</v>
@@ -4145,13 +4172,13 @@
         <v>258906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>256</v>
@@ -4160,13 +4187,13 @@
         <v>264818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>510</v>
@@ -4175,13 +4202,13 @@
         <v>523724</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4223,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -4211,13 +4238,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -4226,18 +4253,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4249,13 +4276,13 @@
         <v>11280</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4264,13 +4291,13 @@
         <v>19510</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -4279,19 +4306,19 @@
         <v>30790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>568</v>
@@ -4300,13 +4327,13 @@
         <v>645278</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>629</v>
@@ -4315,13 +4342,13 @@
         <v>671784</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
@@ -4330,13 +4357,13 @@
         <v>1317062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4378,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -4366,13 +4393,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -4381,18 +4408,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4404,13 +4431,13 @@
         <v>7829</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4419,13 +4446,13 @@
         <v>18840</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -4434,19 +4461,19 @@
         <v>26669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>742</v>
@@ -4455,13 +4482,13 @@
         <v>770754</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H26" s="7">
         <v>739</v>
@@ -4470,13 +4497,13 @@
         <v>807327</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="M26" s="7">
         <v>1481</v>
@@ -4485,13 +4512,13 @@
         <v>1578081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4533,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4521,13 +4548,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4536,13 +4563,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4586,13 @@
         <v>35388</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -4574,13 +4601,13 @@
         <v>80465</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>272</v>
+        <v>70</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="M28" s="7">
         <v>108</v>
@@ -4589,19 +4616,19 @@
         <v>115853</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3193</v>
@@ -4610,13 +4637,13 @@
         <v>3358962</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="H29" s="7">
         <v>3268</v>
@@ -4625,13 +4652,13 @@
         <v>3464077</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="M29" s="7">
         <v>6461</v>
@@ -4640,13 +4667,13 @@
         <v>6823039</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4688,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4676,13 +4703,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4691,18 +4718,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4726,7 +4753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A03140E-705B-452C-B9E8-6917208E84B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079A9B95-7514-4468-A7AE-1033FC7D8864}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4743,7 +4770,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4847,97 +4874,97 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>881</v>
+        <v>925</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>2689</v>
+        <v>2749</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>3570</v>
+        <v>3673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>329</v>
       </c>
       <c r="D5" s="7">
-        <v>259417</v>
+        <v>310518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
         <v>531</v>
       </c>
       <c r="I5" s="7">
-        <v>268714</v>
+        <v>286886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7">
         <v>860</v>
       </c>
       <c r="N5" s="7">
-        <v>528130</v>
+        <v>597404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,51 +4976,51 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5002,97 +5029,97 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>11852</v>
+        <v>11184</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>22761</v>
+        <v>20445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>34612</v>
+        <v>31629</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>504023</v>
+        <v>503986</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>683</v>
       </c>
       <c r="I8" s="7">
-        <v>531080</v>
+        <v>493846</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>307</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>1050</v>
       </c>
       <c r="N8" s="7">
-        <v>1035104</v>
+        <v>997832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,51 +5131,51 @@
         <v>379</v>
       </c>
       <c r="D9" s="7">
-        <v>515875</v>
+        <v>515170</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553841</v>
+        <v>514291</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1095</v>
       </c>
       <c r="N9" s="7">
-        <v>1069716</v>
+        <v>1029461</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5157,97 +5184,97 @@
         <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>20290</v>
+        <v>19083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>22391</v>
+        <v>20505</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
       </c>
       <c r="N10" s="7">
-        <v>42681</v>
+        <v>39588</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>329</v>
       </c>
       <c r="D11" s="7">
-        <v>301950</v>
+        <v>296967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>86</v>
       </c>
       <c r="H11" s="7">
         <v>494</v>
       </c>
       <c r="I11" s="7">
-        <v>350893</v>
+        <v>328623</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
         <v>823</v>
       </c>
       <c r="N11" s="7">
-        <v>652843</v>
+        <v>625590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,51 +5286,51 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5312,97 +5339,97 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>7020</v>
+        <v>6683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>327</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>9365</v>
+        <v>8794</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
       </c>
       <c r="N13" s="7">
-        <v>16385</v>
+        <v>15477</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>282</v>
       </c>
       <c r="D14" s="7">
-        <v>315220</v>
+        <v>305874</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>576</v>
       </c>
       <c r="I14" s="7">
-        <v>418527</v>
+        <v>466293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>858</v>
       </c>
       <c r="N14" s="7">
-        <v>733747</v>
+        <v>772167</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,51 +5441,51 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>427892</v>
+        <v>475087</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750132</v>
+        <v>787644</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5467,97 +5494,97 @@
         <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>9161</v>
+        <v>8278</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>8647</v>
+        <v>7753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>17808</v>
+        <v>16031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>263</v>
       </c>
       <c r="D17" s="7">
-        <v>187587</v>
+        <v>170464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
         <v>470</v>
       </c>
       <c r="I17" s="7">
-        <v>222849</v>
+        <v>200521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>733</v>
       </c>
       <c r="N17" s="7">
-        <v>410436</v>
+        <v>370985</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,51 +5596,51 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5622,97 +5649,97 @@
         <v>62</v>
       </c>
       <c r="D19" s="7">
-        <v>30426</v>
+        <v>29082</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
       </c>
       <c r="I19" s="7">
-        <v>33087</v>
+        <v>31020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
       </c>
       <c r="N19" s="7">
-        <v>63514</v>
+        <v>60103</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>309</v>
       </c>
       <c r="D20" s="7">
-        <v>246797</v>
+        <v>240554</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="H20" s="7">
         <v>373</v>
       </c>
       <c r="I20" s="7">
-        <v>241353</v>
+        <v>224933</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="M20" s="7">
         <v>682</v>
       </c>
       <c r="N20" s="7">
-        <v>488149</v>
+        <v>465486</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,51 +5751,51 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>458</v>
       </c>
       <c r="I21" s="7">
-        <v>274440</v>
+        <v>255953</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>829</v>
       </c>
       <c r="N21" s="7">
-        <v>551663</v>
+        <v>525589</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5777,97 +5804,97 @@
         <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>21538</v>
+        <v>20579</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
       </c>
       <c r="I22" s="7">
-        <v>46418</v>
+        <v>42276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>376</v>
+        <v>223</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
       </c>
       <c r="N22" s="7">
-        <v>67956</v>
+        <v>62855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>574</v>
       </c>
       <c r="D23" s="7">
-        <v>604679</v>
+        <v>602279</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H23" s="7">
         <v>889</v>
       </c>
       <c r="I23" s="7">
-        <v>757065</v>
+        <v>806342</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>384</v>
+        <v>230</v>
       </c>
       <c r="M23" s="7">
         <v>1463</v>
       </c>
       <c r="N23" s="7">
-        <v>1361744</v>
+        <v>1408621</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,51 +5906,51 @@
         <v>597</v>
       </c>
       <c r="D24" s="7">
-        <v>626217</v>
+        <v>622858</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>803483</v>
+        <v>848618</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1556</v>
       </c>
       <c r="N24" s="7">
-        <v>1429700</v>
+        <v>1471476</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5932,97 +5959,97 @@
         <v>15</v>
       </c>
       <c r="D25" s="7">
-        <v>11408</v>
+        <v>9631</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>387</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
       </c>
       <c r="I25" s="7">
-        <v>28539</v>
+        <v>23250</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>247</v>
+        <v>395</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>396</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
       </c>
       <c r="N25" s="7">
-        <v>39947</v>
+        <v>32881</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>398</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>39</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>747</v>
       </c>
       <c r="D26" s="7">
-        <v>848020</v>
+        <v>919089</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>390</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>205</v>
+        <v>400</v>
       </c>
       <c r="H26" s="7">
         <v>1029</v>
       </c>
       <c r="I26" s="7">
-        <v>837133</v>
+        <v>692142</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>253</v>
+        <v>401</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="M26" s="7">
         <v>1776</v>
       </c>
       <c r="N26" s="7">
-        <v>1685153</v>
+        <v>1611231</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>404</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>47</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,46 +6061,46 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,97 +6114,97 @@
         <v>171</v>
       </c>
       <c r="D28" s="7">
-        <v>112577</v>
+        <v>105444</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>393</v>
+        <v>140</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>394</v>
+        <v>250</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H28" s="7">
         <v>312</v>
       </c>
       <c r="I28" s="7">
-        <v>173896</v>
+        <v>156792</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="M28" s="7">
         <v>483</v>
       </c>
       <c r="N28" s="7">
-        <v>286474</v>
+        <v>262236</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>399</v>
+        <v>277</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>400</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3200</v>
       </c>
       <c r="D29" s="7">
-        <v>3267691</v>
+        <v>3349732</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>402</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>404</v>
+        <v>258</v>
       </c>
       <c r="H29" s="7">
         <v>5045</v>
       </c>
       <c r="I29" s="7">
-        <v>3627614</v>
+        <v>3499585</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>405</v>
+        <v>86</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M29" s="7">
         <v>8245</v>
       </c>
       <c r="N29" s="7">
-        <v>6895304</v>
+        <v>6849317</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>408</v>
+        <v>284</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>410</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,51 +6216,51 @@
         <v>3371</v>
       </c>
       <c r="D30" s="7">
-        <v>3380268</v>
+        <v>3455176</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3801510</v>
+        <v>3656377</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8728</v>
       </c>
       <c r="N30" s="7">
-        <v>7181778</v>
+        <v>7111553</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
